--- a/lab6/Книга1.xlsx
+++ b/lab6/Книга1.xlsx
@@ -101,9 +101,6 @@
     <t>Z</t>
   </si>
   <si>
-    <t>Sample Text</t>
-  </si>
-  <si>
     <t>Count</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>24 19 22</t>
+  </si>
+  <si>
+    <t>Yarmolik Nickolay Sergeevich</t>
   </si>
 </sst>
 </file>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -472,34 +472,34 @@
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>32</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>33</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>34</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.3">
@@ -792,7 +792,7 @@
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32">
         <v>26</v>
